--- a/aggregated_output/CAROLINA_aggregated.xlsx
+++ b/aggregated_output/CAROLINA_aggregated.xlsx
@@ -438,7 +438,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is motivated to plan her schedule for the next day to make the most of her time at the conference. Additionally, her comprehensive information processing style means she would consider gathering information about the sessions as a necessary step toward achieving her overall goal of attending the most relevant and interesting sessions.</t>
+Why: Abi is motivated to plan her schedule for the next day to make the most of her time at the conference. This subgoal aligns with her need to gather comprehensive information to form a complete understanding of the sessions available, which fits her information processing style.</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -452,21 +452,21 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is motivated to plan her schedule for the next day to make the most of her time at the conference. Additionally, her comprehensive information processing style means she would consider gathering information about the sessions as a necessary step toward achieving her overall goal of attending the most relevant and interesting sessions.</t>
+Why: Abi is motivated to plan her schedule for the next day to make the most of her time at the conference. This subgoal aligns with her need to gather comprehensive information to decide which sessions to attend.</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations
-Why: Abi is motivated to use technology to accomplish her tasks, and planning which sessions to attend is a crucial step toward achieving her overall goal of making the most out of her time at the ICSE 2019 conference. This subgoal aligns with her need to gather information comprehensively to form a complete understanding of the sessions available.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: Abi is motivated to plan her schedule for the next day to make the most of her time at the conference. This subgoal aligns with her need to gather comprehensive information to form a complete understanding of the sessions available, which fits her information processing style.</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is motivated to plan her schedule for the next day to make the most of her time at the conference. This subgoal aligns with her need to gather comprehensive information to form a complete understanding of the sessions available, which fits her information processing style.</t>
+Why: Abi is motivated to use technology to accomplish her tasks, and planning which sessions to attend is a crucial step toward achieving her overall goal of making the most out of her time at the conference. Additionally, Abi's comprehensive information processing style means she would consider gathering information about the sessions as an essential step in her planning process.</t>
         </is>
       </c>
     </row>
@@ -475,35 +475,35 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Program" menu item is clearly labeled and directly relevant to Abi's goal of finding out which sessions to attend. Given her motivation to plan her schedule and her comprehensive information processing style, Abi will likely recognize that clicking on the "Program" menu item is a logical step to find the session information she needs.</t>
+Why: The "Program" menu item is clearly labeled and directly relevant to Abi's goal of finding out which sessions to attend. Given her motivation to plan her schedule and her comprehensive information processing style, she will recognize that clicking on the "Program" menu item is a logical step to find the session information she needs.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Program" menu item is clearly labeled and directly related to Abi's goal of finding out which sessions to attend. Given her motivation to plan her schedule and her comprehensive information processing style, she will recognize that clicking on the "Program" menu item is a logical step to find the session information she needs.</t>
+Why: The "Program" menu item is clearly labeled and directly relevant to Abi's subgoal of finding out which sessions to attend. Given her motivation to plan her schedule and her comprehensive information processing style, she will recognize that clicking on the "Program" menu item is a logical step to find the necessary information.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is motivated to find out which sessions to attend, and the "Program" menu item is clearly labeled and logically associated with finding session information. Her comprehensive information processing style would lead her to look for a program or schedule to gather the necessary details.</t>
+Why: The "Program" menu item is clearly labeled and directly related to Abi's goal of finding out which sessions to attend. Given her motivation to plan her schedule and her comprehensive information processing style, she will likely recognize that clicking on the "Program" menu item is a necessary step to achieve her subgoal.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Motivations
-Why: The "Program" menu item is clearly labeled and prominently displayed in the navigation bar. Abi, who prefers to gather information comprehensively, will likely recognize that clicking on the "Program" menu item is a logical step to find detailed information about the sessions. This aligns with her motivation to use technology to accomplish her tasks effectively.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Program" menu item is clearly labeled and directly relevant to Abi's subgoal of finding out which sessions to attend. Given her motivation to plan her schedule and her comprehensive information processing style, she will likely recognize that clicking on the "Program" menu item is a logical step to find the session information she needs.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Program" menu item is clearly labeled and directly relevant to Abi's goal of planning which sessions to attend. Given her motivation to plan her schedule and her comprehensive information processing style, she will likely recognize that clicking on the "Program" menu item is a necessary step to find the session information she needs.</t>
+Why: The "Program" menu item is clearly labeled and directly related to Abi's goal of finding out which sessions to attend. Abi is motivated to accomplish her task and will recognize that clicking on the "Program" menu item is a logical step to gather the necessary information. Additionally, her comprehensive information processing style will lead her to explore the program details to make an informed decision.</t>
         </is>
       </c>
     </row>
@@ -512,35 +512,35 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking on the "Program" menu item, Abi is presented with a dropdown menu containing multiple options. While this indicates progress, it may not be immediately clear which specific option will provide the detailed session information she needs. Given her comprehensive information processing style, Abi might feel uncertain about which link to click next. Additionally, her low computer self-efficacy might make her hesitant to explore multiple options without clear guidance, potentially causing her to feel unsure if she is making progress toward her goal.</t>
+Why: After clicking on the "Program" menu item, Abi is presented with a dropdown menu containing multiple options. While this indicates progress, it may not be immediately clear which specific option will provide the detailed session information she needs. Given her comprehensive information processing style, she might feel uncertain about which link to click next. Additionally, her low computer self-efficacy might make her hesitant to explore multiple options without clear guidance, potentially causing confusion and hindering her progress.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking on the "Program" menu item, Abi is presented with a dropdown menu containing multiple options. While this indicates progress, it may not be immediately clear which specific option will provide the detailed session information she needs. Given her comprehensive information processing style, she might feel uncertain about which link to click next. Additionally, her low computer self-efficacy might make her hesitant to explore multiple options without clear guidance, potentially causing confusion and hindering her progress.</t>
+Why: After clicking on the "Program" menu item, Abi is presented with a dropdown menu containing multiple options. While this indicates progress, it may not be immediately clear which specific option will provide the detailed session information she needs for planning her day. Given her comprehensive information processing style, she might feel uncertain about which link to click next. Additionally, her low computer self-efficacy might make her hesitant to explore multiple options without clear guidance.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on the "Program" menu item, Abi will see a dropdown menu with various options related to the program, such as "Complete Program," "Week Overview," and "Keynotes." This will confirm to Abi that she is on the right track to finding the session information she needs. The comprehensive list of options aligns with her information processing style, allowing her to gather detailed information about the sessions.</t>
+          <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: After clicking on the "Program" menu item, Abi is presented with a dropdown menu containing multiple options. While this indicates progress, it may not be immediately clear which specific option will provide the detailed session information she needs. Given her comprehensive information processing style, she might feel uncertain about which link to click next. Additionally, her low computer self-efficacy might make her hesitant to explore multiple options without clear guidance.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: Information Processing Style, Motivations
-Why: After clicking on the "Program" menu item, Abi will see a dropdown menu with various options related to the program, such as "Complete Program," "Your Program," "Week Overview," and more. This provides a clear indication that she is on the right track to finding detailed information about the sessions. The comprehensive list of options aligns with her information processing style, allowing her to gather all the necessary information to plan her sessions effectively.</t>
+          <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: After clicking on the "Program" menu item, Abi is presented with a dropdown menu containing multiple options. While this indicates progress, it may not be immediately clear which specific option will provide the detailed session information she needs. Given her comprehensive information processing style, she might feel uncertain about which link to click next. Additionally, her low computer self-efficacy might make her hesitant to explore multiple options without clear guidance, potentially causing her to feel unsure if she is making progress toward her goal.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on the "Program" menu item, Abi will see a dropdown menu with various options related to the conference program, such as "Complete Program," "Week Overview," "Keynotes," and more. This provides clear and relevant options for her to explore further, aligning with her motivation to plan her schedule and her comprehensive information processing style. She will know she is making progress toward her goal of finding the sessions for the next day.</t>
+          <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: After clicking on the "Program" menu item, Abi is presented with a dropdown menu containing multiple options. While this indicates progress, it may not be immediately clear which specific option will provide the detailed session information she needs. Abi's comprehensive information processing style means she prefers clear, direct paths to information, and the presence of multiple options could be overwhelming. Additionally, her low computer self-efficacy might make her hesitant to explore each option without clear guidance, leading to uncertainty about whether she is making progress toward her goal.</t>
         </is>
       </c>
     </row>
@@ -549,35 +549,35 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Complete Program" option in the dropdown menu is clearly labeled and directly relevant to Abi's goal of finding out which sessions to attend. Given her motivation to plan her schedule and her comprehensive information processing style, Abi will likely recognize that clicking on the "Complete Program" link is a logical step to find the detailed session information she needs.</t>
+Why: The "Complete Program" option in the dropdown menu is clearly labeled and directly relevant to Abi's goal of finding out which sessions to attend. Given her motivation to plan her schedule and her comprehensive information processing style, she will recognize that clicking on "Complete Program" is a logical step to access the detailed session information she needs.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Complete Program" option in the dropdown menu is clearly labeled and directly related to Abi's goal of finding out which sessions to attend. Given her motivation to plan her schedule and her comprehensive information processing style, she will recognize that clicking on "Complete Program" is a logical step to access the detailed session information she needs.</t>
+Why: The "Complete Program" option in the dropdown menu is clearly labeled and directly relevant to Abi's subgoal of finding out which sessions to attend. Given her motivation to plan her schedule and her comprehensive information processing style, she will recognize that clicking on "Complete Program" is a logical step to find the detailed session information she needs.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is motivated to find detailed information about the sessions, and the "Complete Program" option is clearly labeled and suggests it will provide comprehensive information about the conference schedule. This aligns with her information processing style, as she prefers to gather all relevant details to make an informed decision about which sessions to attend.</t>
+Why: The "Complete Program" option in the dropdown menu is clearly labeled and directly related to Abi's goal of finding out which sessions to attend. Given her motivation to plan her schedule and her comprehensive information processing style, she will likely recognize that clicking on "Complete Program" is a necessary step to achieve her subgoal.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Motivations
-Why: The "Complete Program" option is clearly labeled in the dropdown menu under the "Program" menu item. Abi, who prefers to gather comprehensive information, will likely recognize that clicking on "Complete Program" will provide her with a detailed overview of all the sessions. This aligns with her motivation to use technology to accomplish her tasks effectively and her information processing style of gathering all necessary information.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Complete Program" option in the dropdown menu is clearly labeled and directly relevant to Abi's subgoal of finding out which sessions to attend. Given her motivation to plan her schedule and her comprehensive information processing style, she will likely recognize that clicking on the "Complete Program" option is a logical step to find the detailed session information she needs.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Complete Program" option in the dropdown menu is clearly labeled and directly relevant to Abi's goal of finding out which sessions to attend. Given her motivation to plan her schedule and her comprehensive information processing style, she will recognize that clicking on "Complete Program" is a necessary step to access the full list of sessions and make an informed decision.</t>
+Why: The "Complete Program" option in the dropdown menu is clearly labeled and directly related to Abi's goal of finding out which sessions to attend. Abi is motivated to accomplish her task and will recognize that clicking on the "Complete Program" is a logical step to gather the necessary information. Additionally, her comprehensive information processing style will lead her to explore the complete program details to make an informed decision.</t>
         </is>
       </c>
     </row>
@@ -586,35 +586,35 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on the "Complete Program" link, Abi is taken to a page that provides a detailed schedule of sessions, including times, titles, and speakers. This page aligns with her goal of finding out which sessions to attend and provides comprehensive information, which suits her information processing style. Abi will know she is making progress toward her goal and has access to the information she needs to plan her schedule for the next day.</t>
+Why: After clicking on "Complete Program," Abi is taken to a page that provides a detailed timeline of the sessions, including times, titles, and locations. This comprehensive view aligns with her information processing style, allowing her to gather all the necessary information to plan her schedule. The clear and organized presentation of the session details will help her feel confident that she is making progress toward her goal of deciding which sessions to attend.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on "Complete Program," Abi is taken to a page that provides a detailed timeline of sessions for the conference. This page includes comprehensive information about the sessions, including times, titles, and speakers, which aligns with her need for detailed information to plan her schedule. The clear presentation of the schedule will help Abi feel confident that she is making progress toward her goal of deciding which sessions to attend.</t>
+Why: After clicking on "Complete Program," Abi is taken to a detailed schedule of the conference sessions. This page provides a comprehensive list of sessions, including times and locations, which aligns with her need for detailed information to plan her day. The clear layout and detailed information will help Abi feel confident that she is making progress toward her goal of deciding which sessions to attend.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on "Complete Program," Abi will land on a page that provides a detailed timeline of the sessions, including times, titles, and locations. This comprehensive view aligns with her motivation to plan her schedule and her information processing style, which involves gathering all relevant details. The detailed timeline will help her know that she is making progress toward her goal and provide all the information she needs to decide which sessions to attend.</t>
+Why: After clicking on "Complete Program," Abi is taken to a page that provides a detailed timeline of sessions for the day. This page includes comprehensive information about the sessions, including times, titles, and speakers, which aligns with her need for detailed information to plan her schedule. The clear presentation of the schedule will help Abi know that she is making progress toward her goal of deciding which sessions to attend.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Motivations
-Why: After clicking on "Complete Program," Abi is taken to a page that provides a detailed timeline of the sessions for the day. This page includes comprehensive information about the sessions, including times, titles, and speakers, which aligns with Abi's need for detailed information to make informed decisions. The clear layout and detailed schedule will help Abi know that she is making progress toward her goal of planning which sessions to attend.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking on the "Complete Program" option, Abi is taken to a detailed schedule of the conference sessions. This page provides a comprehensive list of sessions, including times, titles, and speakers, which aligns with her need for detailed information to plan her day. The clear and organized presentation of the schedule will help Abi feel confident that she is making progress toward her goal of deciding which sessions to attend.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on "Complete Program," Abi is taken to a detailed schedule of the conference sessions. This page provides a comprehensive list of sessions, including times, titles, and speakers, which aligns with her motivation to plan her schedule and her comprehensive information processing style. She will know she is making progress toward her goal and has access to all the information she needs to decide which sessions to attend.</t>
+Why: After clicking on the "Complete Program," Abi is taken to a detailed schedule of the conference sessions. This page provides a comprehensive list of sessions, including times, titles, and speakers, which aligns with Abi's goal of planning which sessions to attend. The detailed information available on this page will help Abi feel confident that she is making progress toward her goal and has the necessary information to decide which sessions to attend.</t>
         </is>
       </c>
     </row>
@@ -623,35 +623,35 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Session Timeline" tab is clearly labeled and directly relevant to Abi's goal of finding out which sessions to attend. Given her motivation to plan her schedule and her comprehensive information processing style, Abi will likely recognize that clicking on the "Session Timeline" tab is a logical step to view the sessions in a timeline format, which can help her better understand the schedule and make informed decisions.</t>
+Why: The "Session Timeline" tab is clearly labeled and is a logical next step for Abi to view the sessions in a timeline format, which can help her plan her day more effectively. Given her motivation to organize her schedule and her comprehensive information processing style, she will recognize that clicking on "Session Timeline" will provide her with a different, potentially more useful view of the session information she needs.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Session Timeline" tab is clearly labeled and directly related to Abi's goal of finding out which sessions to attend. Given her motivation to plan her schedule and her comprehensive information processing style, she will recognize that clicking on "Session Timeline" is a logical step to access a detailed view of the sessions, helping her to organize her day effectively.</t>
+Why: The "Session Timeline" tab is clearly labeled and is a logical next step for Abi to get a different view of the sessions. Given her motivation to plan her schedule and her comprehensive information processing style, she will recognize that clicking on "Session Timeline" could provide a useful alternative view of the sessions, helping her to make an informed decision about which sessions to attend.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The "Session Timeline" tab is not clearly explained on the page, and Abi might not be confident about what it will show or how it differs from the "Detailed Table" view she is already seeing. Given her low computer self-efficacy and preference for process-oriented learning, she might hesitate to click on it without more information about what it will provide.</t>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Session Timeline" tab is clearly labeled and is located next to the "Detailed Table" tab, which Abi is currently viewing. Given her motivation to find detailed information about the sessions and her comprehensive information processing style, Abi will likely recognize that clicking on the "Session Timeline" tab will provide an alternative view of the session schedule, helping her to better plan her day.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Motivations
-Why: The "Session Timeline" tab is clearly labeled and located next to the "Detailed Table" tab. Abi, who prefers to gather comprehensive information, will likely recognize that clicking on the "Session Timeline" tab will provide her with a different view of the session schedule. This aligns with her motivation to use technology to accomplish her tasks effectively and her information processing style of gathering all necessary information.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Session Timeline" tab is clearly labeled and directly relevant to Abi's subgoal of finding out which sessions to attend. Given her motivation to plan her schedule and her comprehensive information processing style, she will likely recognize that clicking on the "Session Timeline" tab is a logical step to view the sessions in a timeline format, which can help her better understand the schedule and make informed decisions.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Session Timeline" tab is clearly labeled and is a logical next step for Abi to get a visual overview of the sessions. Given her motivation to plan her schedule and her comprehensive information processing style, she will recognize that clicking on "Session Timeline" will help her see the sessions in a timeline format, which can aid in her decision-making process.</t>
+Why: The "Session Timeline" tab is clearly labeled and positioned next to the "Detailed Table" tab, making it easy for Abi to identify. Given Abi's motivation to plan her sessions and her comprehensive information processing style, she will recognize that clicking on the "Session Timeline" tab is a logical step to view the sessions in a timeline format, which may help her better visualize and plan her schedule for the next day.</t>
         </is>
       </c>
     </row>
@@ -660,35 +660,35 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The session timeline page presents a very dense and visually overwhelming schedule. While it does provide a comprehensive view of the sessions, the sheer amount of information and the format may make it difficult for Abi to quickly ascertain if she is making progress toward her goal. Given her comprehensive information processing style, Abi might find it challenging to parse through this extensive timeline to find the specific sessions she is interested in. Additionally, her low computer self-efficacy might make her feel overwhelmed and unsure if she is on the right track, potentially causing her to doubt if she has all the information she needs.</t>
+Why: The session timeline page presents a very dense and visually overwhelming amount of information. While it does provide a comprehensive view of the sessions, the sheer volume and complexity of the data may make it difficult for Abi to quickly and easily find the specific information she needs. Given her comprehensive information processing style, she might feel overwhelmed by the amount of information and unsure if she is making progress toward her goal. Additionally, her low computer self-efficacy might make her hesitant to navigate through such a complex interface, potentially causing confusion and hindering her progress.</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking on "Session Timeline," Abi is presented with a very detailed and extensive timeline. While this page contains a lot of information, the sheer volume and density of the data might be overwhelming for her. Given her comprehensive information processing style, she might find it difficult to quickly extract the specific information she needs for planning her sessions. Additionally, her low computer self-efficacy might make her feel uncertain about navigating such a complex page, potentially causing her to feel lost or unsure if she is making progress toward her goal.</t>
+Why: The "Session Timeline" page presents a very dense and visually overwhelming schedule. While it does provide a comprehensive view of the sessions, the sheer amount of information and the layout may make it difficult for Abi to quickly find the specific sessions she is interested in. Given her comprehensive information processing style, she might feel overwhelmed by the volume of information and uncertain about how to proceed. Additionally, her low computer self-efficacy might make her hesitant to navigate such a complex page without clear guidance.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While the session timeline provides a visual overview of the sessions, it is very dense and may be overwhelming for Abi. Given her comprehensive information processing style, she might find it difficult to extract the specific information she needs from this visual representation. Additionally, her low computer self-efficacy might make her uncertain about how to navigate or interpret this timeline effectively. The sheer volume of information presented in this format could hinder her ability to feel confident that she is making progress toward her goal.</t>
+Why: After clicking on the "Session Timeline," Abi is presented with a very dense and visually complex schedule. While this view provides a lot of information, it may be overwhelming for Abi, given her need for comprehensive information processing and her low computer self-efficacy. The sheer volume of information and the visual complexity might make it difficult for her to quickly determine if she is making progress toward her goal and to extract the specific details she needs.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: Information Processing Style, Computer Self-Efficacy
-Why: The session timeline page presents a very dense and visually overwhelming schedule. While it does provide a comprehensive view of the sessions, the sheer amount of information and the compact layout may make it difficult for Abi to process the information effectively. Given Abi's low confidence in doing unfamiliar computing tasks and her preference for comprehensive but manageable information, she might feel overwhelmed and uncertain about whether she is making progress toward her goal. The layout does not facilitate easy navigation or understanding, which could hinder her ability to get all the information she needs.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The session timeline page presents a very dense and visually overwhelming schedule. While it does provide a lot of information, the sheer volume and complexity might make it difficult for Abi to quickly ascertain if she is making progress toward her goal. Given her comprehensive information processing style, she might find it challenging to parse through all the details efficiently. Additionally, her low computer self-efficacy might make her feel overwhelmed and unsure if she is on the right track, potentially causing her to doubt her progress.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The session timeline page is very dense and visually overwhelming, with a large amount of information presented in a compact format. Given Abi's comprehensive information processing style, she may find it difficult to quickly extract the specific information she needs. Additionally, her low computer self-efficacy may make her feel uncertain about navigating such a complex page, potentially causing her to doubt whether she is making progress toward her goal.</t>
+Why: The session timeline page presents a very dense and visually complex schedule. While it does provide a lot of information, the sheer volume and layout may be overwhelming for Abi, who prefers a comprehensive but manageable amount of information. The complexity of the timeline might make it difficult for her to quickly ascertain which sessions to attend, leading to potential confusion and uncertainty about whether she is making progress toward her goal. Additionally, her low computer self-efficacy might make her hesitant to navigate such a complex interface without clear guidance.</t>
         </is>
       </c>
     </row>
@@ -697,35 +697,35 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The timeline is very dense and visually overwhelming, making it difficult for Abi to quickly locate the specific tutorial she is interested in. Given her comprehensive information processing style, Abi might find it challenging to parse through this extensive timeline to find the "R for Software Engineering Research" tutorial. Additionally, her low computer self-efficacy might make her hesitant to click on items without being certain they are the correct ones, potentially causing her to feel unsure about what to do at this step.</t>
+Why: The session timeline page is very dense and visually overwhelming, making it difficult for Abi to quickly locate the specific tutorial she is interested in. Given her comprehensive information processing style, she might feel uncertain about where to click to find the detailed information she needs. Additionally, her low computer self-efficacy might make her hesitant to navigate through such a complex interface without clear guidance, potentially causing confusion and hindering her progress.</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The timeline is very detailed and dense, which might make it difficult for Abi to quickly locate the specific tutorial she is interested in. Given her comprehensive information processing style, she might find it challenging to sift through the extensive information to find the exact session. Additionally, her low computer self-efficacy might make her hesitant to click on a session without being certain it will provide the information she needs, potentially causing confusion and hindering her progress.</t>
+Why: The "Session Timeline" page is very dense and visually overwhelming, making it difficult for Abi to quickly locate the specific tutorial she is interested in. Given her comprehensive information processing style, she might feel uncertain about where to click next due to the large amount of information presented. Additionally, her low computer self-efficacy might make her hesitant to navigate such a complex page without clear guidance, leading to uncertainty about whether clicking on the tutorial is the right action to take.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
           <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The timeline view is very dense and visually complex, which might make it difficult for Abi to quickly identify the specific tutorial she is interested in. Given her comprehensive information processing style, she might feel overwhelmed by the amount of information presented. Additionally, her low computer self-efficacy might make her hesitant to click on a specific session without being certain it will provide the detailed information she needs. The visual complexity and lack of clear guidance on what each session link will provide could deter her from confidently taking this action.</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The session timeline is very dense and visually overwhelming, making it difficult for Abi to quickly locate the specific tutorial she is interested in. Given her comprehensive information processing style, she might find it challenging to parse through all the details efficiently. Additionally, her low computer self-efficacy might make her hesitant to click on a session without being certain it is the correct one, potentially causing her to feel unsure about what to do at this step.</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Answer: NO
 Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The timeline is very dense and visually complex, which might make it difficult for Abi to confidently identify and click on the specific tutorial she is interested in. Given her low computer self-efficacy, she might be unsure about how to interact with this interface. Additionally, her preference for process-oriented learning means she would benefit from clearer instructions or labels, which are not provided in this dense visual representation.</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: Computer Self-Efficacy, Attitude Toward Risk
-Why: The session timeline page is very dense and visually overwhelming, which might make it difficult for Abi to confidently identify and click on the specific tutorial she is interested in. Given Abi's low confidence in doing unfamiliar computing tasks and her risk-averse nature, she might be hesitant to click on the tutorial without clear and easily accessible information. The compact layout and the amount of information presented could make her uncertain about what to do next.</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The timeline page is visually dense and may be overwhelming for Abi. Given her low computer self-efficacy, she might feel uncertain about clicking on a specific session without clear instructions or confirmation that it will provide the detailed information she needs. Additionally, her preference for process-oriented learning means she would benefit from more explicit guidance on what to do next, which is not provided on this page.</t>
+Why: The timeline is visually complex and dense, which might make it difficult for Abi to identify specific sessions like the "R for Software Engineering Research" tutorial. Given her low computer self-efficacy, she might feel overwhelmed and uncertain about where to click. Additionally, without clear instructions or a step-by-step guide, Abi might not feel confident in navigating this interface to find the specific session she is looking for. This complexity and lack of clear guidance do not align well with her process-oriented learning style.</t>
         </is>
       </c>
     </row>
@@ -734,35 +734,35 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on the tutorial "R for Software Engineering Research," Abi is taken to a page that provides detailed information about the tutorial, including the course description, prerequisites, and instructor details. This aligns with her goal of finding out which sessions to attend and provides comprehensive information, which suits her information processing style. Abi will know she is making progress toward her goal and has access to the information she needs to decide whether to attend this tutorial.</t>
+Why: After clicking on the tutorial "R for Software Engineering Research," Abi is taken to a page that provides detailed information about the tutorial, including the course description, prerequisites, and instructor details. This comprehensive view aligns with her information processing style, allowing her to gather all the necessary information to decide if this session is relevant to her interests. The clear and organized presentation of the tutorial details will help her feel confident that she is making progress toward her goal of deciding which sessions to attend.</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on the tutorial "R for Software Engineering Research," Abi is taken to a page that provides detailed information about the tutorial, including the course description, prerequisites, and instructor details. This aligns with her motivation to plan her schedule and her comprehensive information processing style, as she will have access to all the necessary information to decide if this session is relevant to her interests and needs. The clear presentation of the tutorial details will help Abi feel confident that she is making progress toward her goal.</t>
+Why: After clicking on the tutorial "R for Software Engineering Research," Abi is taken to a page that provides detailed information about the tutorial, including the course description, prerequisites, and instructor details. This aligns with her motivation to plan her schedule and her comprehensive information processing style, as she will have all the necessary information to decide whether to attend this session. The clear and detailed layout of the page will help Abi feel confident that she is making progress toward her goal.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on the tutorial "R for Software Engineering Research," Abi will land on a page that provides detailed information about the tutorial, including the course description, prerequisites, and instructor details. This aligns with her motivation to gather comprehensive information about the sessions she plans to attend. The detailed and structured format of the information will help her feel confident that she is making progress toward her goal and has all the necessary details to decide whether to attend this tutorial.</t>
+Why: After clicking on the tutorial "R for Software Engineering Research," Abi is taken to a page that provides detailed information about the tutorial, including the course description, prerequisites, and instructor details. This aligns with her motivation to gather comprehensive information to plan her schedule. The clear and detailed presentation of the tutorial information will help Abi know that she is making progress toward her goal and has the necessary information to decide whether to attend this session.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Motivations
-Why: After clicking on the tutorial "R for Software Engineering Research," Abi is taken to a page that provides detailed information about the tutorial, including the course description, prerequisites, and the instructor's information. This aligns with Abi's need for comprehensive information to make informed decisions. The clear layout and detailed content will help Abi know that she is making progress toward her goal of planning which sessions to attend and will provide her with all the necessary information she needs.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking on the tutorial "R for Software Engineering Research," Abi is taken to a page that provides detailed information about the tutorial, including the course description, prerequisites, and instructor details. This aligns with her motivation to plan her schedule and her comprehensive information processing style, as she can now gather all the necessary information to decide if this session is relevant to her interests and needs. The clear and organized presentation of the tutorial details will help Abi feel confident that she is making progress toward her goal.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on the tutorial "R for Software Engineering Research," Abi is taken to a page that provides detailed information about the tutorial, including the course description, prerequisites, and instructor details. This aligns with her motivation to plan her schedule and her comprehensive information processing style, as she will have access to all the necessary information to decide whether to attend this session. She will know she is making progress toward her goal and has the information she needs.</t>
+Why: After clicking on the tutorial "R for Software Engineering Research," Abi is taken to a page that provides detailed information about the tutorial, including the course description, prerequisites, and instructor details. This aligns well with Abi's motivation to gather comprehensive information to plan her sessions. The detailed and structured information on this page will help Abi feel confident that she is making progress toward her goal and has the necessary information to decide whether to attend this tutorial.</t>
         </is>
       </c>
     </row>

--- a/aggregated_output/CAROLINA_aggregated.xlsx
+++ b/aggregated_output/CAROLINA_aggregated.xlsx
@@ -14,221 +14,232 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Answer: YES
 Facets: 1. Motivations
-Why: Abi is at the conference and planning which sessions to attend the next day. This aligns with her motivation to make the most of her time at the event by attending relevant sessions.</t>
+Why: Abi is at the conference and planning her schedule for the next day. Determining which sessions to attend is a logical step toward achieving her goal of making the most of her time at the conference. This aligns with her motivation to accomplish her tasks effectively.</t>
+  </si>
+  <si>
+    <t>Answer: Yes 
+Facets: 1. Motivations, 2. Information Processing Style
+Why: It seems likely that ABI has considered this a step toward achieving the overall use case because ABI's motivation is to accomplish her tasks. It is part of her planning for the next day. Also her information processing style is "bursty"; first, ABI reads a lot and then acts on it in a batch of activities. So it is clear that she has thought of this as a step toward achieving the overall use case</t>
   </si>
   <si>
     <t>Answer: YES
 Facets: 1. Motivations
-Why: Abi is motivated to plan her schedule for the next day at the conference. Determining which sessions to attend is a logical step toward achieving her overall goal of making the most of her time at ICSE 2019.</t>
+Why: Abi is at the conference and planning her schedule for the next day. Determining which sessions to attend is a logical step toward achieving her goal of making the most of her time at the conference. This aligns with her motivation to accomplish tasks effectively.</t>
   </si>
   <si>
     <t>Answer: YES
 Facets: 1. Motivations
-Why: Abi is at the conference and planning her schedule for the next day. Determining which sessions to attend is a logical step toward achieving her goal of making the most of her time at the conference. This aligns with her motivation to accomplish tasks efficiently.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Program" menu item is clearly labeled and directly related to finding session information, which aligns with Abi's motivation to plan her schedule. Her comprehensive information processing style would lead her to look for a program or schedule to gather necessary details.</t>
+Why: Abi is at the conference and planning her schedule for the next day. Determining which sessions to attend is a logical and necessary step toward achieving her goal of making the most of her time at the conference. This aligns with her motivation to accomplish her tasks effectively.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1.Motivations
+Why: Abi uses technology to accomplish tasks. Abi learns new technologies if and when needed but prefers to use methods they are already familiar with and comfortable with to keep their focus on the tasks they care about.
+She needs to plan for sessions to go to tomorrow, so she should think this as an important step to achieve the ultimate goal of planning to go to relevant sessions</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Program" menu item is clearly labeled and directly related to Abi's goal of planning which sessions to attend. This aligns with her motivation to find relevant information and her comprehensive information processing style, as she would logically look for a program or schedule to plan her day.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking the "Program" menu, Abi sees a dropdown with options like "Complete Program," "Your Program," and specific dates. This provides clear pathways to find detailed session information, confirming she is making progress toward her goal of planning which sessions to attend. The options are well-organized, aligning with her comprehensive information processing style.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Complete Program" option is clearly labeled and directly related to Abi's goal of finding session information. It logically follows her previous action and aligns with her motivation to gather comprehensive information about the sessions available.</t>
   </si>
   <si>
     <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page contains a lot of information, which may be overwhelming for Abi. Her comprehensive information processing style might make it difficult to quickly find the specific sessions for the next day. Additionally, her low computer self-efficacy could lead to uncertainty about whether she is on the right track.</t>
+Why: The page contains a large amount of information, which may be overwhelming for Abi. Her comprehensive information processing style might make it difficult to quickly find the specific sessions for the next day. Additionally, her low computer self-efficacy could lead to uncertainty about whether she is viewing the correct information.</t>
   </si>
   <si>
     <t>Answer: NO
 Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The page is dense with information, and without clear guidance or labeling, Abi might struggle to identify the "complete program" link. Her low computer self-efficacy and preference for process-oriented learning mean she may not feel confident in knowing what to do next without explicit instructions.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The page provides a detailed program with clear session information, which aligns with Abi's motivation to plan her schedule. The structured format supports her comprehensive information processing style, helping her feel confident that she is making progress toward her goal.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Session Timeline" option is clearly labeled and directly related to viewing the schedule in a timeline format, which can help Abi plan her day. This aligns with her motivation to organize her schedule and her comprehensive information processing style.</t>
+Why: The page is dense with information, and there is no clear indication or instruction about clicking on a "session timeline." Abi's low computer self-efficacy and preference for process-oriented learning mean she might not feel confident about what to do without explicit guidance.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The session timeline provides a clear, visual representation of the schedule, making it easier for Abi to see the sessions available on each day. This aligns with her motivation to plan effectively and supports her comprehensive information processing style by presenting the information in an organized manner.</t>
+  </si>
+  <si>
+    <t>Answer: NO
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The timeline is visually dense, and without explicit instructions or clear indicators, Abi might not feel confident about clicking on a specific tutorial. Her low computer self-efficacy and preference for guided learning mean she may hesitate without clear guidance on what clicking will achieve.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page provides detailed information about the "R for Software Engineering Research" tutorial, including the course description and prerequisites. This aligns with Abi's motivation to gather comprehensive information and helps her confirm she is making progress toward planning her sessions.</t>
+  </si>
+  <si>
+    <t>Answer: NO
+Facets: 3. Attitude towards Risk, 4.Computer Self-Efficacy
+Why: ABI will be unaware of what this button will do as there is no information near the button. To be on the safe side and not risk uncertainty, ABI will likely not click on this button as she is risk-averse to using unfamiliar technologies that might need extra time to figure out. Her Computer Self-Efficacy is not good. So she will unlikely click the button to explore</t>
+  </si>
+  <si>
+    <t>Answer: Yes
+Facets: 1. Motivations, 2. Information Processing Style
+Why: Since ABI clicked the "program" link, she should understand that she is now on the program page. Also, now she can see the schedule of the conference and can start making decision based on it. This will help her to achieve her goal. So it is a yes as her motivation is to accomplish her tasks.</t>
+  </si>
+  <si>
+    <t>Answer: Yes
+Facets: 2. Information Processing Style
+Why: ABI will know to click on the "complete program" button because it is written clearly. And this is aligned with her information processing style. So she will feel comfortable to click the button</t>
+  </si>
+  <si>
+    <t>Answer: Yes
+Facets: 1. Motivations, 2. Information Processing Style
+Why: Since ABI clicked the "complete program" link, she should understand that she is now on the complete schedule page. Also, now she can see the schedule of the conference and can start making decision based on it. This will help her to achieve her goal. So it is a yes as her motivation is to accomplish her tasks.</t>
+  </si>
+  <si>
+    <t>Answer: Yes
+Facets: 2. Information Processing Style
+Why: There is a section for "session timeline" which will help her to see the schedule for the conference. So it is clear that she will click on the button to know which event is happening when</t>
+  </si>
+  <si>
+    <t>Answer: Yes
+Facets: 1. Motivations, 2. Information Processing Style
+Why: Since ABI clicked the "session timeline" link, she should understand that she is now on the session timeline page. Also, now she can see the schedule of the conference and can start making decision based on it. This will help her to achieve her goal. So it is a yes as her motivation is to accomplish her tasks.</t>
+  </si>
+  <si>
+    <t>Answer: Yes
+Facets: 2. Information Processing Style
+Why: It is clearly written on the page that R for Software Engineering Research is  at 9:00am-12:30pm. So Abi can see the details about event. She will do it to plan her schedule.</t>
+  </si>
+  <si>
+    <t>Answer: Yes
+Facets: 1. Motivations, 2. Information Processing Style
+Why: Since ABI clicked the "R for software Engineering Research" link, she should understand that she is now on the tutorial page. Also, now she can see the details about the event. This will help her to achieve her goal. So it is a yes as her motivation is to accomplish her tasks.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Program" menu item is clearly labeled and directly related to finding session information, which aligns with Abi's motivation to plan her schedule. Her comprehensive information processing style would lead her to look for a program or schedule to determine which sessions to attend.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking the "Program" menu, Abi sees a dropdown with options like "Complete Program," "Your Program," and specific dates. This provides clear paths to explore the schedule, confirming she is making progress toward her goal of planning which sessions to attend. The options are directly related to her task, aligning with her motivation and comprehensive information processing style.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Complete Program" option is clearly labeled and suggests it will provide a full overview of the conference schedule. This aligns with Abi's motivation to plan her sessions and her comprehensive information processing style, as she seeks detailed information to make informed decisions.</t>
   </si>
   <si>
     <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The timeline view presents a lot of information in a compact format, which might be overwhelming for Abi. Her comprehensive information processing style may make it difficult to quickly extract the specific details she needs. Additionally, her low computer self-efficacy could lead to uncertainty about whether she is effectively making progress toward her goal.</t>
+Why: The "Complete Program" page contains a large amount of information, which may be overwhelming for Abi. Her comprehensive information processing style might make it difficult to sift through all the details to find specific sessions for the next day. Additionally, her low computer self-efficacy could lead to uncertainty about whether she is effectively making progress toward her goal.</t>
   </si>
   <si>
     <t>Answer: NO
 Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The timeline is dense with information, and Abi may not easily identify the specific tutorial link without clear guidance. Her low computer self-efficacy and preference for structured learning mean she might not feel confident in knowing what to do next without explicit instructions.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The page provides detailed information about the "R for Software Engineering Research" tutorial, including the course description and prerequisites. This aligns with Abi's motivation to gather comprehensive information and supports her information processing style, helping her feel confident that she is making progress toward her goal.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Program" menu item is clearly labeled and directly related to Abi's goal of finding sessions to attend. Her motivation to plan her schedule and her comprehensive information processing style will guide her to click on it to find relevant session information.</t>
+Why: The page is dense with information, and there is no clear indication or label for a "session timeline" to click on. Abi's low computer self-efficacy and preference for process-oriented learning mean she might struggle to identify the correct action without explicit guidance.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The session timeline provides a clear visual representation of the schedule, making it easier for Abi to see the sessions available each day. This aligns with her motivation to plan effectively and her comprehensive information processing style, as she can quickly identify and compare sessions for the next day.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The timeline clearly labels sessions, including the "R for Software Engineering Research" tutorial. Abi's motivation to plan her schedule and her comprehensive information processing style will guide her to click on the tutorial to gather more details, as it directly relates to her goal.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page provides detailed information about the "R for Software Engineering Research" tutorial, including the course description and prerequisites. This aligns with Abi's motivation to plan effectively and her comprehensive information processing style, confirming she is making progress toward her goal.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Program" menu item is clearly labeled and directly relevant to Abi's goal of finding out which sessions to attend. This aligns with her motivation to plan her schedule and her comprehensive information processing style, as she would logically look for a program or schedule to gather the necessary information.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking the "Program" menu, Abi sees a dropdown with options like "Complete Program," "Your Program," and specific dates. This provides clear pathways to find detailed session information, confirming she is making progress toward her goal of planning which sessions to attend. The options are directly relevant and align with her motivation and comprehensive information processing style.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Complete Program" option is clearly labeled and suggests it will provide a full overview of the conference schedule. This aligns with Abi's motivation to plan her sessions and her comprehensive information processing style, as she would likely seek out a complete list to make informed decisions.</t>
   </si>
   <si>
     <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page contains a lot of information, which may be overwhelming for Abi. Her comprehensive information processing style might make it difficult for her to quickly find the specific sessions she is interested in. Additionally, her low computer self-efficacy could make her doubt whether she is on the right track, as the page does not clearly indicate progress toward her goal.</t>
+Why: The page provides a comprehensive list of sessions, but the sheer volume of information may be overwhelming for Abi. Her comprehensive information processing style might struggle with the lack of clear organization or filtering options, and her low computer self-efficacy could make it difficult for her to efficiently find the specific sessions she is interested in for the next day.</t>
   </si>
   <si>
     <t>Answer: NO
 Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The page is cluttered with information, and without clear guidance or labeling, Abi might struggle to identify the "complete program" link. Her low computer self-efficacy and preference for process-oriented learning mean she may not feel confident in knowing what to do next without explicit instructions.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The page provides a clear and detailed schedule of sessions, which aligns with Abi's goal of planning her day. The structured format helps her process the information comprehensively, confirming she is on the right track and making progress toward her goal.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Session Timeline" tab is clearly labeled and relevant to Abi's goal of planning her schedule. Her motivation to organize her day and her comprehensive information processing style will guide her to explore this option for a visual representation of the sessions.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The session timeline provides a clear visual representation of the schedule, helping Abi see the sessions at a glance. This aligns with her motivation to plan her day and supports her comprehensive information processing style, confirming she is making progress toward her goal.</t>
+Why: The page is dense with information, and there is no clear indication or label for a "session timeline" to click on. Abi's low computer self-efficacy and preference for process-oriented learning mean she might struggle to identify the correct action without explicit guidance or a clear label.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The session timeline provides a clear, visual representation of the schedule, making it easier for Abi to see the sessions available each day. This aligns with her motivation to plan effectively and supports her comprehensive information processing style by organizing the information in a digestible format.</t>
   </si>
   <si>
     <t>Answer: NO
 Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The timeline is dense with information, and without clear instructions or labels indicating that clicking will provide more details, Abi might hesitate. Her low computer self-efficacy and preference for explicit guidance mean she may not feel confident in knowing what to do next.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The page provides detailed information about the tutorial, including the course description and prerequisites. This aligns with Abi's motivation to plan her sessions and supports her comprehensive information processing style, confirming she is making progress toward her goal.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is motivated to find out which sessions to attend, and the "Program" menu item is a logical place to look for session information. Her comprehensive information processing style would lead her to explore this option to gather the necessary details.</t>
-  </si>
-  <si>
-    <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: Although Abi lands on a page with session information, the overwhelming amount of data may make it difficult for her to process and find the specific sessions she is interested in. Her low computer self-efficacy might also make her doubt whether she is effectively making progress toward her goal.</t>
-  </si>
-  <si>
-    <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The page is dense with information, and without clear guidance or a step-by-step process, Abi might struggle to identify the "complete program" link. Her low computer self-efficacy and preference for structured learning make it challenging for her to know what to do next.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking "complete program," Abi lands on a page with a clear and organized schedule of sessions. This aligns with her motivation to plan her day and her comprehensive information processing style, allowing her to see that she is making progress toward her goal.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "session timeline" option is clearly labeled and likely to provide a visual representation of the schedule, which aligns with Abi's motivation to plan her day. Her comprehensive information processing style would guide her to explore this option for a clearer overview.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The session timeline provides a clear, visual overview of the schedule, which helps Abi see her options for the next day. This aligns with her motivation to plan effectively and supports her comprehensive information processing style, confirming she is making progress toward her goal.</t>
-  </si>
-  <si>
-    <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The timeline is dense with information, and without explicit instructions or a clear indication of what clicking on the tutorial will provide, Abi might hesitate. Her low computer self-efficacy and preference for structured guidance make it challenging for her to confidently know what to do at this step.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on the tutorial, Abi lands on a page with detailed information about the session, including the course description and prerequisites. This aligns with her motivation to plan effectively and supports her comprehensive information processing style, confirming she is making progress toward her goal.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Program" menu item is clearly labeled and directly related to finding session information, which aligns with Abi's motivation to plan her schedule. Her comprehensive information processing style would lead her to explore this option to gather necessary details.</t>
-  </si>
-  <si>
-    <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: Although Abi lands on a page with session information, the overwhelming amount of data and lack of clear organization may make it difficult for her to process and find specific sessions for the next day. This could hinder her confidence and ability to determine if she's making progress toward her goal.</t>
-  </si>
-  <si>
-    <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The page is cluttered with information, and without clear guidance or labeling, Abi might struggle to identify the "complete program" link. Her low confidence in unfamiliar tasks and preference for structured guidance make it unlikely she'll know what to do at this step.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The page provides a detailed timeline of sessions, which is exactly what Abi needs to plan her day. The clear organization and labeling of sessions help her understand that she is making progress toward her goal of selecting sessions to attend.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Session Timeline" option is clearly labeled and directly related to viewing sessions in a chronological order, which aligns with Abi's goal of planning her schedule. Her motivation to organize her day and the clear labeling help her know what to do at this step.</t>
-  </si>
-  <si>
-    <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The timeline view presents a lot of information in a dense format, which may be overwhelming for Abi. The complexity and volume of data could make it difficult for her to determine if she's making progress toward her goal, as she might struggle to extract the specific information she needs.</t>
-  </si>
-  <si>
-    <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The timeline is dense and may not clearly indicate that clicking on a specific tutorial will provide more information. Abi might not feel confident in navigating this complex interface without explicit guidance, making it unclear what to do at this step.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The page provides detailed information about the tutorial, including the course description and prerequisites. This aligns with Abi's motivation to gather comprehensive information to plan her sessions, helping her know she is making progress toward her goal.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Program" menu item is clearly labeled and directly relates to Abi's goal of finding sessions to attend. Her motivation to plan her schedule and her comprehensive information processing style will guide her to click on it to find relevant session information.</t>
-  </si>
-  <si>
-    <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page contains a lot of information, which might overwhelm Abi. Her comprehensive information processing style could make it difficult for her to quickly find the specific sessions she is interested in. Additionally, her low computer self-efficacy might make her doubt whether she is on the right track, as the page does not clearly indicate progress toward her specific goal.</t>
-  </si>
-  <si>
-    <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The page is dense with information, and without clear guidance or labeling, Abi might struggle to identify the "complete program" link. Her low computer self-efficacy and preference for process-oriented learning mean she may not feel confident in knowing what to do without explicit instructions.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The page clearly displays the program schedule with detailed timelines, which directly aligns with Abi's goal of planning her sessions. The structured format helps her process the information comprehensively, confirming she is on the right track and making progress toward her goal.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "session timeline" option is clearly labeled and directly relates to Abi's goal of organizing her schedule. Her motivation to efficiently plan her day and her comprehensive information processing style will guide her to explore this option for a more visual representation of the sessions.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The session timeline provides a clear, visual representation of the schedule, which helps Abi see the sessions at a glance. This aligns with her motivation to plan effectively and supports her comprehensive information processing style, confirming she is making progress toward her goal.</t>
-  </si>
-  <si>
-    <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The timeline is dense with information, and without clear instructions or labels indicating what clicking on a tutorial will do, Abi might hesitate. Her low computer self-efficacy and preference for process-oriented learning mean she may not feel confident in taking this action without explicit guidance.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The page provides detailed information about the tutorial, including the course description and prerequisites. This aligns with Abi's motivation to plan effectively and supports her comprehensive information processing style, confirming she is making progress toward her goal.</t>
+Why: The timeline is visually dense, and without clear instructions or labels indicating that clicking on a session will provide more details, Abi might hesitate. Her low computer self-efficacy and preference for explicit guidance mean she may not be confident in knowing that clicking will yield the desired information.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page provides detailed information about the "R for Software Engineering Research" tutorial, including the course description and prerequisites. This aligns with Abi's motivation to plan her sessions and supports her comprehensive information processing style by offering all the necessary details to make an informed decision.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 6. None of the Above
+Why: Abi uses technologies to accomplish tasks. Here, she is using the program menu to view details about the sessions and decide which sessions she might want to go to. None of the other facets put ABI at risk of not completing this action.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 6. None of the Above
+Why: Abi uses technologies to accomplish tasks. Here, she is using the program menu to view details about the sessions and decide which sessions she might want to go to. She sees a list of sessions and their times and descriptions, which is precisely what she needs to make her decision.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations
+Why: Abi uses technologies to accomplish tasks. Here, she is using the program menu to view details about the sessions and decide which sessions she might want to go to. Clicking at complete program will give her a list of sessions that have complete information.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 6. None of the Above
+Why: Abi uses technologies to accomplish tasks. Here, she is using the program menu to view details about the sessions and decide which sessions she might want to go to. She sees a list of sessions that have complete information, which is precisely what she needs to make her decision.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 6. None of the Above
+Why: Abi uses technologies to accomplish tasks. Here, she is using the program menu to view details about the sessions and decide which sessions she might want to go to. Clicking on session timeline will give her a list of sessions that have timeline which is precisely what she needs to make her decision.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 6. None of the Above
+Why: Abi uses technologies to accomplish tasks. Here, she is using the program menu to view details about the sessions and decide which sessions she might want to go to. She sees a list of sessions that have timeline which is precisely what she needs to make her decision.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 6. None of the Above
+Why: Abi uses technologies to accomplish tasks. Here, she is using the program menu to view details about the sessions and decide which sessions she might want to go to.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 6. None of the Above
+Why: Abi uses technologies to accomplish tasks. Here, she is using the program menu to view details about the sessions and decide which sessions she might want to go to. She sees the details of the tutorials that run day by day, which is precisely what she needs to make her decision.</t>
   </si>
 </sst>
 </file>
@@ -600,149 +611,149 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/aggregated_output/CAROLINA_aggregated.xlsx
+++ b/aggregated_output/CAROLINA_aggregated.xlsx
@@ -14,132 +14,81 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>Answer: YES
 Facets: 1. Motivations
-Why: Abi is at the conference and planning her schedule for the next day. Determining which sessions to attend is a logical step toward achieving her goal of making the most of her time at the conference. This aligns with her motivation to accomplish her tasks effectively.</t>
-  </si>
-  <si>
-    <t>Answer: Yes 
-Facets: 1. Motivations, 2. Information Processing Style
-Why: It seems likely that ABI has considered this a step toward achieving the overall use case because ABI's motivation is to accomplish her tasks. It is part of her planning for the next day. Also her information processing style is "bursty"; first, ABI reads a lot and then acts on it in a batch of activities. So it is clear that she has thought of this as a step toward achieving the overall use case</t>
+Why: Abi is motivated to plan her schedule for the next day at the conference. Determining which sessions to attend is a logical step toward achieving her overall goal of making the most of her time at ICSE 2019.</t>
   </si>
   <si>
     <t>Answer: YES
 Facets: 1. Motivations
-Why: Abi is at the conference and planning her schedule for the next day. Determining which sessions to attend is a logical step toward achieving her goal of making the most of her time at the conference. This aligns with her motivation to accomplish tasks effectively.</t>
+Why: Abi is motivated to plan her schedule for the next day at the conference. Determining which sessions to attend is a logical step toward achieving her goal of making the most of her time at ICSE 2019.</t>
   </si>
   <si>
     <t>Answer: YES
 Facets: 1. Motivations
-Why: Abi is at the conference and planning her schedule for the next day. Determining which sessions to attend is a logical and necessary step toward achieving her goal of making the most of her time at the conference. This aligns with her motivation to accomplish her tasks effectively.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1.Motivations
-Why: Abi uses technology to accomplish tasks. Abi learns new technologies if and when needed but prefers to use methods they are already familiar with and comfortable with to keep their focus on the tasks they care about.
-She needs to plan for sessions to go to tomorrow, so she should think this as an important step to achieve the ultimate goal of planning to go to relevant sessions</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Program" menu item is clearly labeled and directly related to Abi's goal of planning which sessions to attend. This aligns with her motivation to find relevant information and her comprehensive information processing style, as she would logically look for a program or schedule to plan her day.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking the "Program" menu, Abi sees a dropdown with options like "Complete Program," "Your Program," and specific dates. This provides clear pathways to find detailed session information, confirming she is making progress toward her goal of planning which sessions to attend. The options are well-organized, aligning with her comprehensive information processing style.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Complete Program" option is clearly labeled and directly related to Abi's goal of finding session information. It logically follows her previous action and aligns with her motivation to gather comprehensive information about the sessions available.</t>
+Why: Abi is at the conference and planning which sessions to attend the next day. Determining which sessions to go to is a logical step toward achieving her goal of planning her schedule for the conference.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: Abi is motivated to find out which sessions to attend, and the "Program" menu item is a logical place to look for session information. Her comprehensive information processing style would lead her to explore this option to gather the necessary details.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking the "Program" menu, Abi sees a dropdown with options like "Complete Program," "Your Program," and specific dates. This provides clear paths to explore the sessions, confirming she is making progress toward her goal of planning which sessions to attend. The options align with her comprehensive information processing style, allowing her to gather detailed information.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: Abi is motivated to find detailed session information, and the "Complete Program" option is clearly labeled, indicating it will provide comprehensive details about the sessions. This aligns with her need for thorough information processing.</t>
   </si>
   <si>
     <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page contains a large amount of information, which may be overwhelming for Abi. Her comprehensive information processing style might make it difficult to quickly find the specific sessions for the next day. Additionally, her low computer self-efficacy could lead to uncertainty about whether she is viewing the correct information.</t>
+Why: Although Abi lands on a page with detailed session information, the sheer volume of data can be overwhelming. Her comprehensive information processing style might struggle to sift through it all efficiently, and her low computer self-efficacy could make it difficult to navigate and extract the specific details she needs for planning.</t>
   </si>
   <si>
     <t>Answer: NO
 Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The page is dense with information, and there is no clear indication or instruction about clicking on a "session timeline." Abi's low computer self-efficacy and preference for process-oriented learning mean she might not feel confident about what to do without explicit guidance.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The session timeline provides a clear, visual representation of the schedule, making it easier for Abi to see the sessions available on each day. This aligns with her motivation to plan effectively and supports her comprehensive information processing style by presenting the information in an organized manner.</t>
-  </si>
-  <si>
-    <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The timeline is visually dense, and without explicit instructions or clear indicators, Abi might not feel confident about clicking on a specific tutorial. Her low computer self-efficacy and preference for guided learning mean she may hesitate without clear guidance on what clicking will achieve.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The page provides detailed information about the "R for Software Engineering Research" tutorial, including the course description and prerequisites. This aligns with Abi's motivation to gather comprehensive information and helps her confirm she is making progress toward planning her sessions.</t>
-  </si>
-  <si>
-    <t>Answer: NO
-Facets: 3. Attitude towards Risk, 4.Computer Self-Efficacy
-Why: ABI will be unaware of what this button will do as there is no information near the button. To be on the safe side and not risk uncertainty, ABI will likely not click on this button as she is risk-averse to using unfamiliar technologies that might need extra time to figure out. Her Computer Self-Efficacy is not good. So she will unlikely click the button to explore</t>
-  </si>
-  <si>
-    <t>Answer: Yes
-Facets: 1. Motivations, 2. Information Processing Style
-Why: Since ABI clicked the "program" link, she should understand that she is now on the program page. Also, now she can see the schedule of the conference and can start making decision based on it. This will help her to achieve her goal. So it is a yes as her motivation is to accomplish her tasks.</t>
-  </si>
-  <si>
-    <t>Answer: Yes
-Facets: 2. Information Processing Style
-Why: ABI will know to click on the "complete program" button because it is written clearly. And this is aligned with her information processing style. So she will feel comfortable to click the button</t>
-  </si>
-  <si>
-    <t>Answer: Yes
-Facets: 1. Motivations, 2. Information Processing Style
-Why: Since ABI clicked the "complete program" link, she should understand that she is now on the complete schedule page. Also, now she can see the schedule of the conference and can start making decision based on it. This will help her to achieve her goal. So it is a yes as her motivation is to accomplish her tasks.</t>
-  </si>
-  <si>
-    <t>Answer: Yes
-Facets: 2. Information Processing Style
-Why: There is a section for "session timeline" which will help her to see the schedule for the conference. So it is clear that she will click on the button to know which event is happening when</t>
-  </si>
-  <si>
-    <t>Answer: Yes
-Facets: 1. Motivations, 2. Information Processing Style
-Why: Since ABI clicked the "session timeline" link, she should understand that she is now on the session timeline page. Also, now she can see the schedule of the conference and can start making decision based on it. This will help her to achieve her goal. So it is a yes as her motivation is to accomplish her tasks.</t>
-  </si>
-  <si>
-    <t>Answer: Yes
-Facets: 2. Information Processing Style
-Why: It is clearly written on the page that R for Software Engineering Research is  at 9:00am-12:30pm. So Abi can see the details about event. She will do it to plan her schedule.</t>
-  </si>
-  <si>
-    <t>Answer: Yes
-Facets: 1. Motivations, 2. Information Processing Style
-Why: Since ABI clicked the "R for software Engineering Research" link, she should understand that she is now on the tutorial page. Also, now she can see the details about the event. This will help her to achieve her goal. So it is a yes as her motivation is to accomplish her tasks.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Program" menu item is clearly labeled and directly related to finding session information, which aligns with Abi's motivation to plan her schedule. Her comprehensive information processing style would lead her to look for a program or schedule to determine which sessions to attend.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking the "Program" menu, Abi sees a dropdown with options like "Complete Program," "Your Program," and specific dates. This provides clear paths to explore the schedule, confirming she is making progress toward her goal of planning which sessions to attend. The options are directly related to her task, aligning with her motivation and comprehensive information processing style.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Complete Program" option is clearly labeled and suggests it will provide a full overview of the conference schedule. This aligns with Abi's motivation to plan her sessions and her comprehensive information processing style, as she seeks detailed information to make informed decisions.</t>
+Why: The page is dense with information, and without clear instructions or labels indicating a "session timeline," Abi might not know where to click. Her low computer self-efficacy and preference for process-oriented learning mean she may struggle to identify the correct action without explicit guidance.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The session timeline provides a clear, visual representation of the schedule, making it easier for Abi to see the sessions available each day. This format aligns with her motivation to plan effectively and supports her comprehensive information processing style by organizing the information in an accessible way.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The timeline clearly labels sessions, including the tutorial "R for Software Engineering Research." Abi is motivated to find sessions of interest, and the visual layout helps her identify and select specific sessions, aligning with her comprehensive information processing style.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking on the tutorial, Abi lands on a page with detailed information about "R for Software Engineering Research," including the course description and prerequisites. This confirms she is making progress toward her goal and provides the comprehensive details she needs, aligning with her motivations and information processing style.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Program" menu item is clearly labeled and directly related to Abi's goal of finding sessions to attend. Her motivation to plan her schedule and her comprehensive information processing style will guide her to click on the "Program" menu to find relevant session information.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking the "Program" menu, Abi sees a dropdown with options like "Complete Program," "Your Program," and specific dates. This provides clear pathways to find detailed session information, confirming she is making progress toward her goal of planning which sessions to attend.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Complete Program" option is clearly labeled and directly related to Abi's goal of finding session information. Her motivation to plan her schedule and her comprehensive information processing style will guide her to click on "Complete Program" to access detailed session details.</t>
   </si>
   <si>
     <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The "Complete Program" page contains a large amount of information, which may be overwhelming for Abi. Her comprehensive information processing style might make it difficult to sift through all the details to find specific sessions for the next day. Additionally, her low computer self-efficacy could lead to uncertainty about whether she is effectively making progress toward her goal.</t>
+Why: The page contains a large amount of information, which may be overwhelming for Abi. Her comprehensive information processing style might make it difficult to quickly find the specific sessions for the next day. Additionally, her low computer self-efficacy could lead to uncertainty about whether she is on the right track.</t>
   </si>
   <si>
     <t>Answer: NO
@@ -149,97 +98,137 @@
   <si>
     <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The session timeline provides a clear visual representation of the schedule, making it easier for Abi to see the sessions available each day. This aligns with her motivation to plan effectively and her comprehensive information processing style, as she can quickly identify and compare sessions for the next day.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The timeline clearly labels sessions, including the "R for Software Engineering Research" tutorial. Abi's motivation to plan her schedule and her comprehensive information processing style will guide her to click on the tutorial to gather more details, as it directly relates to her goal.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The page provides detailed information about the "R for Software Engineering Research" tutorial, including the course description and prerequisites. This aligns with Abi's motivation to plan effectively and her comprehensive information processing style, confirming she is making progress toward her goal.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Program" menu item is clearly labeled and directly relevant to Abi's goal of finding out which sessions to attend. This aligns with her motivation to plan her schedule and her comprehensive information processing style, as she would logically look for a program or schedule to gather the necessary information.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking the "Program" menu, Abi sees a dropdown with options like "Complete Program," "Your Program," and specific dates. This provides clear pathways to find detailed session information, confirming she is making progress toward her goal of planning which sessions to attend. The options are directly relevant and align with her motivation and comprehensive information processing style.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Complete Program" option is clearly labeled and suggests it will provide a full overview of the conference schedule. This aligns with Abi's motivation to plan her sessions and her comprehensive information processing style, as she would likely seek out a complete list to make informed decisions.</t>
+Why: The session timeline provides a clear visual representation of the schedule, making it easier for Abi to see the sessions available on each day. This aligns with her motivation to plan her schedule and her comprehensive information processing style, confirming she is making progress toward her goal.</t>
+  </si>
+  <si>
+    <t>Answer: NO
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The timeline is visually dense, and without explicit instructions or clear labeling, Abi might not be confident in identifying the correct tutorial to click on. Her low computer self-efficacy and preference for guided learning could make this step challenging without additional guidance.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page provides detailed information about the "R for Software Engineering Research" tutorial, including the course description and prerequisites. This aligns with Abi's motivation to plan her schedule and her comprehensive information processing style, confirming she is making progress toward her goal.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Program" menu item is clearly labeled and directly related to Abi's goal of finding sessions to attend. This aligns with her motivation to plan her schedule and her comprehensive information processing style, as she would logically look for a program or schedule to determine which sessions to attend.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking the "Program" menu, Abi sees a dropdown with options like "Complete Program," "Your Program," and specific dates. This provides clear paths to explore the sessions, confirming she is making progress toward her goal of planning which sessions to attend. The options are directly related to her task, aligning with her motivation and comprehensive information processing style.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Complete Program" option is clearly labeled and suggests it will provide a full overview of the conference schedule. This aligns with Abi's motivation to find sessions for the next day and her comprehensive information processing style, as she would likely seek a complete list to make informed decisions.</t>
   </si>
   <si>
     <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page provides a comprehensive list of sessions, but the sheer volume of information may be overwhelming for Abi. Her comprehensive information processing style might struggle with the lack of clear organization or filtering options, and her low computer self-efficacy could make it difficult for her to efficiently find the specific sessions she is interested in for the next day.</t>
+Why: The page contains a large amount of information, which may overwhelm Abi. Her comprehensive information processing style might make it difficult to sift through all the details to find specific sessions for the next day. Additionally, her low computer self-efficacy could lead to uncertainty about whether she is effectively using the page to achieve her goal.</t>
   </si>
   <si>
     <t>Answer: NO
 Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The page is dense with information, and there is no clear indication or label for a "session timeline" to click on. Abi's low computer self-efficacy and preference for process-oriented learning mean she might struggle to identify the correct action without explicit guidance or a clear label.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The session timeline provides a clear, visual representation of the schedule, making it easier for Abi to see the sessions available each day. This aligns with her motivation to plan effectively and supports her comprehensive information processing style by organizing the information in a digestible format.</t>
+Why: The page is dense with information, and it's unclear where the "session timeline" is or how to interact with it. Abi's low computer self-efficacy and preference for process-oriented learning mean she might struggle to identify the correct action without clear guidance or instructions.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The session timeline provides a clear, visual representation of the schedule, making it easier for Abi to see the sessions available on each day. This aligns with her motivation to plan her day and supports her comprehensive information processing style by presenting the information in an organized manner. She can see her progress toward selecting sessions for the next day.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The timeline clearly displays the tutorial "R for Software Engineering Research," which is relevant to Abi's goal of selecting sessions. Her motivation to plan her schedule and the organized presentation of information support her ability to identify and click on the tutorial.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page provides detailed information about the "R for Software Engineering Research" tutorial, including the time, location, and course description. This aligns with Abi's motivation to plan her sessions and supports her comprehensive information processing style, confirming she is making progress toward her goal.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Program" menu item is clearly labeled and directly related to finding session information, which aligns with Abi's goal of planning her schedule. This makes it likely that she will know to click it to find the sessions for the next day.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking the "Program" menu, Abi sees a dropdown with options like "Complete Program," "Your Program," and specific dates. This provides clear paths to find detailed session information, confirming she is making progress toward her goal of planning which sessions to attend.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Complete Program" option is clearly labeled and suggests it will provide comprehensive session information. This aligns with Abi's goal of finding out which sessions to attend, making it likely she will know to click it.</t>
+  </si>
+  <si>
+    <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The page contains a large amount of information, which may be overwhelming for Abi. Her comprehensive information processing style might make it difficult to quickly find the specific sessions for the next day. Additionally, the sheer volume of data could affect her confidence in navigating the page effectively.</t>
   </si>
   <si>
     <t>Answer: NO
 Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The timeline is visually dense, and without clear instructions or labels indicating that clicking on a session will provide more details, Abi might hesitate. Her low computer self-efficacy and preference for explicit guidance mean she may not be confident in knowing that clicking will yield the desired information.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The page provides detailed information about the "R for Software Engineering Research" tutorial, including the course description and prerequisites. This aligns with Abi's motivation to plan her sessions and supports her comprehensive information processing style by offering all the necessary details to make an informed decision.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 6. None of the Above
-Why: Abi uses technologies to accomplish tasks. Here, she is using the program menu to view details about the sessions and decide which sessions she might want to go to. None of the other facets put ABI at risk of not completing this action.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 6. None of the Above
-Why: Abi uses technologies to accomplish tasks. Here, she is using the program menu to view details about the sessions and decide which sessions she might want to go to. She sees a list of sessions and their times and descriptions, which is precisely what she needs to make her decision.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations
-Why: Abi uses technologies to accomplish tasks. Here, she is using the program menu to view details about the sessions and decide which sessions she might want to go to. Clicking at complete program will give her a list of sessions that have complete information.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 6. None of the Above
-Why: Abi uses technologies to accomplish tasks. Here, she is using the program menu to view details about the sessions and decide which sessions she might want to go to. She sees a list of sessions that have complete information, which is precisely what she needs to make her decision.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 6. None of the Above
-Why: Abi uses technologies to accomplish tasks. Here, she is using the program menu to view details about the sessions and decide which sessions she might want to go to. Clicking on session timeline will give her a list of sessions that have timeline which is precisely what she needs to make her decision.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 6. None of the Above
-Why: Abi uses technologies to accomplish tasks. Here, she is using the program menu to view details about the sessions and decide which sessions she might want to go to. She sees a list of sessions that have timeline which is precisely what she needs to make her decision.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 6. None of the Above
-Why: Abi uses technologies to accomplish tasks. Here, she is using the program menu to view details about the sessions and decide which sessions she might want to go to.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 6. None of the Above
-Why: Abi uses technologies to accomplish tasks. Here, she is using the program menu to view details about the sessions and decide which sessions she might want to go to. She sees the details of the tutorials that run day by day, which is precisely what she needs to make her decision.</t>
+Why: The page is dense with information, and there is no clear indication or label for a "session timeline" to click on. Abi might struggle to identify what to do next due to the lack of explicit guidance and her low confidence in unfamiliar computing tasks.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The session timeline provides a clear visual representation of the schedule, making it easier for Abi to see the sessions available on each day. This aligns with her goal of planning which sessions to attend, confirming she is making progress and has the information she needs.</t>
+  </si>
+  <si>
+    <t>Answer: NO
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The timeline is visually complex, and without explicit instructions or labels indicating that clicking on a tutorial will provide more information, Abi might not feel confident in knowing what to do next. Her low computer self-efficacy and preference for clear guidance could hinder her from taking this action.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page provides detailed information about the "R for Software Engineering Research" tutorial, including the time, location, and course description. This aligns with Abi's goal of planning her sessions, confirming she is making progress and has the information she needs.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Program" menu item is clearly labeled and aligns with Abi's goal of finding out which sessions to attend. Her motivation to plan her schedule and her comprehensive information processing style would guide her to look for a program or schedule-related link.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking the "Program" menu, Abi sees a dropdown with options like "Complete Program," "Week Overview," and specific dates. This provides clear paths to explore the schedule, confirming she's on the right track to find session information for the next day.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Complete Program" option is clearly labeled and directly relates to Abi's goal of finding session information. Her motivation to plan and her comprehensive information processing style would lead her to select this option to view all available sessions.</t>
+  </si>
+  <si>
+    <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The page contains a large amount of information, which may overwhelm Abi. Her comprehensive information processing style might make it difficult to quickly find the specific sessions for the next day. Additionally, her low computer self-efficacy could lead to uncertainty about navigating such a dense page effectively.</t>
+  </si>
+  <si>
+    <t>Answer: NO
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The page is dense with information, and there is no clear indication or instruction about a "session timeline" to click on. Abi's low computer self-efficacy and preference for process-oriented learning mean she might struggle to identify the correct action without explicit guidance.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The session timeline provides a clear, visual representation of the schedule, which helps Abi see the sessions for each day. This aligns with her motivation to plan her day and her comprehensive information processing style, allowing her to confirm she's making progress toward her goal.</t>
+  </si>
+  <si>
+    <t>Answer: NO
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The page is visually complex, and without clear instructions or labels indicating that clicking on a tutorial will provide more information, Abi might hesitate. Her low computer self-efficacy and preference for explicit guidance mean she may not be confident in taking this action without more direction.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking, Abi lands on a page with detailed information about the "R for Software Engineering Research" tutorial, including the time, location, and course description. This aligns with her motivation to plan her sessions and her comprehensive information processing style, confirming she's making progress toward her goal.</t>
   </si>
 </sst>
 </file>
@@ -608,152 +597,152 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
